--- a/baltimore_redlining_notebook/notes/attributes.xlsx
+++ b/baltimore_redlining_notebook/notes/attributes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahagarrat/dcic/baltimore_redlining_notebook/notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahagarrat/git/dcic/dcic_baltimore-notebook/baltimore_redlining_notebook/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16800" tabRatio="500"/>
+    <workbookView xWindow="760" yWindow="3360" windowWidth="28800" windowHeight="16800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="variables " sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Column Name</t>
   </si>
@@ -62,18 +62,12 @@
     <t>Terrain_Description</t>
   </si>
   <si>
-    <t>Values could be possibly standardized</t>
-  </si>
-  <si>
     <t>Favorable_Influences</t>
   </si>
   <si>
     <t>Detrimental_Influences</t>
   </si>
   <si>
-    <t>Yes/No</t>
-  </si>
-  <si>
     <t>INHABITANTS_Type</t>
   </si>
   <si>
@@ -129,6 +123,93 @@
   </si>
   <si>
     <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>The type of form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No cleaning necessary </t>
+  </si>
+  <si>
+    <t>The state in the US</t>
+  </si>
+  <si>
+    <t>The city in the US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The collection consist of at least 5 different types of forms that vary by city </t>
+  </si>
+  <si>
+    <t>The grade of desirability</t>
+  </si>
+  <si>
+    <t>A - "best" green , B - "still desirable", C- "definitely decliing  D - "hazardous"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can be sorted by security grade </t>
+  </si>
+  <si>
+    <t>The section number of the security grade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description of terrain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No cleaning necccessary </t>
+  </si>
+  <si>
+    <t>Can check the occurances of the different types of terrain, can visualize terrain with security grade</t>
+  </si>
+  <si>
+    <t>Not possible</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In progress </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can be modified to yes/no and similar words combined </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can be modified to Yes/No </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic on functions </t>
+  </si>
+  <si>
+    <t>Some cities include suburb location , should leave that alone?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can check what was most favorable with text analysis , visualization </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description of a section's desirable characteristics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description of a section's "undesirable" characteristics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socioenomic status of people in section </t>
+  </si>
+  <si>
+    <t>Values could be possibly standardized, po</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visulization </t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Whether there are "foreign" born people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refers to African-American habitants </t>
   </si>
 </sst>
 </file>
@@ -486,18 +567,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="34.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -510,140 +594,196 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D2"/>
-    </row>
-    <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3"/>
     </row>
-    <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
       <c r="C4"/>
       <c r="D4"/>
-    </row>
-    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5"/>
-    </row>
-    <row r="6" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
       <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7"/>
-    </row>
-    <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-    </row>
-    <row r="9" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9"/>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="B10"/>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10"/>
-    </row>
-    <row r="11" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11"/>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D11"/>
-    </row>
-    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14"/>
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
       <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -651,7 +791,7 @@
     </row>
     <row r="17" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -659,7 +799,7 @@
     </row>
     <row r="18" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -667,7 +807,7 @@
     </row>
     <row r="19" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -675,7 +815,7 @@
     </row>
     <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -683,7 +823,7 @@
     </row>
     <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
@@ -691,7 +831,7 @@
     </row>
     <row r="22" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -699,7 +839,7 @@
     </row>
     <row r="23" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -707,7 +847,7 @@
     </row>
     <row r="24" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -715,7 +855,7 @@
     </row>
     <row r="25" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -723,7 +863,7 @@
     </row>
     <row r="26" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
@@ -731,7 +871,7 @@
     </row>
     <row r="27" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>

--- a/baltimore_redlining_notebook/notes/attributes.xlsx
+++ b/baltimore_redlining_notebook/notes/attributes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="760" yWindow="3360" windowWidth="28800" windowHeight="16800" tabRatio="500"/>
+    <workbookView xWindow="760" yWindow="4840" windowWidth="28800" windowHeight="16800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="variables " sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
   <si>
     <t>Column Name</t>
   </si>
@@ -167,21 +167,12 @@
     <t>Not possible</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In progress </t>
-  </si>
-  <si>
     <t xml:space="preserve">Can be modified to yes/no and similar words combined </t>
   </si>
   <si>
     <t xml:space="preserve">Can be modified to Yes/No </t>
   </si>
   <si>
-    <t xml:space="preserve">Topic on functions </t>
-  </si>
-  <si>
     <t>Some cities include suburb location , should leave that alone?</t>
   </si>
   <si>
@@ -210,6 +201,114 @@
   </si>
   <si>
     <t xml:space="preserve">Refers to African-American habitants </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heading </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Cleaning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic on functions , possible text analysis </t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altered to yes or no </t>
+  </si>
+  <si>
+    <t>Data Cleaning</t>
+  </si>
+  <si>
+    <t>Few, None, Yes?</t>
+  </si>
+  <si>
+    <t>how the population is increasing in area</t>
+  </si>
+  <si>
+    <t>Categorized into degrees based on table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Cleaning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subtopic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">still need to do ranking </t>
+  </si>
+  <si>
+    <t>Could also assign values to the degrees for analysis. Might not be useful for this particular data set since half are Nan</t>
+  </si>
+  <si>
+    <t>estimate of the age of the buildings in the area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">going to create new column defined as the max building age </t>
+  </si>
+  <si>
+    <t>Date Cleaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete vs. Categorical data, conditional statements </t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string parsing </t>
+  </si>
+  <si>
+    <t>split on "to"</t>
+  </si>
+  <si>
+    <t>date on the form</t>
+  </si>
+  <si>
+    <t>can separate into three separate columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all of the dates are the same in the form, may be useful for other datasets </t>
+  </si>
+  <si>
+    <t>unclear</t>
+  </si>
+  <si>
+    <t>amount of relief families</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how poulation is decreasing in area </t>
+  </si>
+  <si>
+    <t>Not as non Nan values, could be useful for other datasets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format of dates, one attribute per column </t>
+  </si>
+  <si>
+    <t>whether people are inflitrating or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can be modified to yes/no, none fix, </t>
+  </si>
+  <si>
+    <t>How to deal with columns that have actual people</t>
+  </si>
+  <si>
+    <t>whether population is static or not</t>
+  </si>
+  <si>
+    <t>modified to yes/no, yes fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">types of buildings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uniform categories </t>
   </si>
 </sst>
 </file>
@@ -241,12 +340,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -281,13 +386,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -567,21 +674,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="103" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="50.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -592,13 +699,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -609,11 +722,13 @@
         <v>34</v>
       </c>
       <c r="D2"/>
-      <c r="E2" t="s">
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -624,21 +739,21 @@
         <v>5</v>
       </c>
       <c r="D3"/>
-    </row>
-    <row r="4" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -649,11 +764,13 @@
         <v>5</v>
       </c>
       <c r="D5"/>
-      <c r="E5" t="s">
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -664,8 +781,10 @@
         <v>40</v>
       </c>
       <c r="D6"/>
-    </row>
-    <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -676,206 +795,348 @@
         <v>43</v>
       </c>
       <c r="D7"/>
-      <c r="E7" t="s">
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
       </c>
       <c r="D8"/>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D10"/>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11"/>
-    </row>
-    <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13"/>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
       <c r="C13"/>
       <c r="D13"/>
-    </row>
-    <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15"/>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
       <c r="C15"/>
       <c r="D15"/>
-    </row>
-    <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16"/>
-      <c r="C16"/>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
       <c r="D16"/>
-    </row>
-    <row r="17" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B19"/>
-      <c r="C19"/>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
       <c r="D19"/>
-    </row>
-    <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B20"/>
-      <c r="C20"/>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
       <c r="D20"/>
-    </row>
-    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B21"/>
-      <c r="C21"/>
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
       <c r="D21"/>
-    </row>
-    <row r="22" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
-    </row>
-    <row r="23" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
-    </row>
-    <row r="25" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
-    </row>
-    <row r="26" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
-    </row>
-    <row r="27" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/baltimore_redlining_notebook/notes/attributes.xlsx
+++ b/baltimore_redlining_notebook/notes/attributes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="760" yWindow="4840" windowWidth="28800" windowHeight="16800" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="880" yWindow="1520" windowWidth="28800" windowHeight="16800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="variables " sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
   <si>
     <t>Column Name</t>
   </si>
@@ -173,9 +173,6 @@
     <t xml:space="preserve">Can be modified to Yes/No </t>
   </si>
   <si>
-    <t>Some cities include suburb location , should leave that alone?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Can check what was most favorable with text analysis , visualization </t>
   </si>
   <si>
@@ -309,6 +306,12 @@
   </si>
   <si>
     <t xml:space="preserve">uniform categories </t>
+  </si>
+  <si>
+    <t xml:space="preserve">split into new column called suburb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some cities include suburb location </t>
   </si>
 </sst>
 </file>
@@ -676,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="103" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -699,10 +702,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -749,8 +752,11 @@
       <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="G4" s="5" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -806,7 +812,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
@@ -815,7 +821,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -823,22 +829,22 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>47</v>
       </c>
       <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
         <v>60</v>
-      </c>
-      <c r="E9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -846,16 +852,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
         <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -863,7 +869,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -877,20 +883,20 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
         <v>62</v>
-      </c>
-      <c r="G12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -898,7 +904,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -910,22 +916,22 @@
         <v>18</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -933,7 +939,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -945,18 +951,18 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
         <v>87</v>
-      </c>
-      <c r="C16" t="s">
-        <v>88</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -964,20 +970,20 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
         <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17"/>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -985,22 +991,22 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
         <v>66</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" t="s">
         <v>67</v>
       </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
-      </c>
       <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" t="s">
         <v>70</v>
-      </c>
-      <c r="G18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1008,18 +1014,18 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19"/>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1027,14 +1033,14 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
         <v>90</v>
-      </c>
-      <c r="C20" t="s">
-        <v>91</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20"/>
     </row>
@@ -1043,10 +1049,10 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
         <v>92</v>
-      </c>
-      <c r="C21" t="s">
-        <v>93</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -1067,22 +1073,22 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
         <v>72</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" t="s">
         <v>73</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" t="s">
         <v>77</v>
-      </c>
-      <c r="E23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1120,22 +1126,22 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" t="s">
         <v>80</v>
-      </c>
-      <c r="D27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
